--- a/策划文档/版本进度/DEMO版本规划内容.xlsx
+++ b/策划文档/版本进度/DEMO版本规划内容.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>按钮点击效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向锁定bug优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -753,8 +761,8 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1189,8 +1197,12 @@
       <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16" ht="33.75" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C20" s="8"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -1207,8 +1219,12 @@
       <c r="P20" s="13"/>
     </row>
     <row r="21" spans="1:16" ht="43.5" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>

--- a/策划文档/版本进度/DEMO版本规划内容.xlsx
+++ b/策划文档/版本进度/DEMO版本规划内容.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="23700" windowHeight="10470" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="23700" windowHeight="10470"/>
   </bookViews>
   <sheets>
     <sheet name="程序" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,10 @@
   </si>
   <si>
     <t>伤害漂字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体看护甲值系统文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1063,9 +1067,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1255,7 +1259,9 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="101" t="s">
+        <v>48</v>
+      </c>
       <c r="D8" s="14"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -1855,7 +1861,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2595,8 +2601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/策划文档/版本进度/DEMO版本规划内容.xlsx
+++ b/策划文档/版本进度/DEMO版本规划内容.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1068,8 +1068,8 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1861,7 +1861,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1934,7 +1934,9 @@
         <v>32</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="36"/>
+      <c r="D3" s="107" t="s">
+        <v>46</v>
+      </c>
       <c r="E3" s="36"/>
       <c r="F3" s="33"/>
       <c r="G3" s="32"/>
@@ -1956,7 +1958,9 @@
         <v>32</v>
       </c>
       <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
+      <c r="D4" s="107" t="s">
+        <v>46</v>
+      </c>
       <c r="E4" s="40"/>
       <c r="F4" s="43"/>
       <c r="G4" s="44"/>
@@ -2000,7 +2004,9 @@
         <v>32</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="107" t="s">
+        <v>46</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="15"/>
@@ -2601,8 +2607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2831,7 +2837,9 @@
         <v>32</v>
       </c>
       <c r="C10" s="101"/>
-      <c r="D10" s="105"/>
+      <c r="D10" s="107" t="s">
+        <v>46</v>
+      </c>
       <c r="E10" s="105"/>
       <c r="F10" s="102"/>
       <c r="G10" s="101"/>

--- a/策划文档/版本进度/DEMO版本规划内容.xlsx
+++ b/策划文档/版本进度/DEMO版本规划内容.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1067,9 +1067,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1120,7 +1120,9 @@
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="107" t="s">
+        <v>46</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="3"/>
@@ -1144,7 +1146,9 @@
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="107" t="s">
+        <v>46</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
@@ -1166,7 +1170,9 @@
         <v>8</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="10"/>
+      <c r="D4" s="107" t="s">
+        <v>46</v>
+      </c>
       <c r="E4" s="16"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -1190,7 +1196,9 @@
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="107" t="s">
+        <v>46</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -2608,7 +2616,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/策划文档/版本进度/DEMO版本规划内容.xlsx
+++ b/策划文档/版本进度/DEMO版本规划内容.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="23700" windowHeight="10470"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="23700" windowHeight="10470" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="程序" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1067,9 +1067,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1869,7 +1869,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2615,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2731,7 +2731,9 @@
         <v>32</v>
       </c>
       <c r="C5" s="68"/>
-      <c r="D5" s="72"/>
+      <c r="D5" s="107" t="s">
+        <v>46</v>
+      </c>
       <c r="E5" s="72"/>
       <c r="F5" s="69"/>
       <c r="G5" s="73"/>

--- a/策划文档/版本进度/DEMO版本规划内容.xlsx
+++ b/策划文档/版本进度/DEMO版本规划内容.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="23700" windowHeight="10470" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="23700" windowHeight="10470"/>
   </bookViews>
   <sheets>
     <sheet name="程序" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配置完成demo所需要的副本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>释放技能还是会有上下方向的转向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,6 +194,18 @@
   </si>
   <si>
     <t>具体看护甲值系统文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本配置需求文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本战斗结算界面UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1067,9 +1075,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1095,7 +1103,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
@@ -1121,7 +1129,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1147,7 +1155,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1171,7 +1179,7 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="11"/>
@@ -1197,7 +1205,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -1268,7 +1276,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="11"/>
@@ -1315,10 +1323,10 @@
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="11"/>
+      <c r="C10" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="101"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -1340,7 +1348,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -1364,7 +1372,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1382,7 +1390,7 @@
     </row>
     <row r="13" spans="1:16" ht="82.5" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
@@ -1404,7 +1412,7 @@
     </row>
     <row r="14" spans="1:16" ht="90.75" customHeight="1">
       <c r="A14" s="100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="99" t="s">
         <v>8</v>
@@ -1869,7 +1877,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1895,7 +1903,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
@@ -1912,14 +1920,14 @@
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="108" customHeight="1">
       <c r="A2" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="99" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="99" t="s">
-        <v>32</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1936,14 +1944,14 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A3" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="33"/>
@@ -1960,14 +1968,14 @@
     </row>
     <row r="4" spans="1:16" ht="51" customHeight="1">
       <c r="A4" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="43"/>
@@ -1984,10 +1992,10 @@
     </row>
     <row r="5" spans="1:16" ht="45" customHeight="1">
       <c r="A5" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="11"/>
@@ -2006,14 +2014,14 @@
     </row>
     <row r="6" spans="1:16" ht="93" customHeight="1">
       <c r="A6" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>49</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -2029,8 +2037,12 @@
       <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>49</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2615,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2642,7 +2654,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
@@ -2659,10 +2671,10 @@
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="108" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="49"/>
@@ -2681,10 +2693,10 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A3" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="53" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>38</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="55"/>
@@ -2703,10 +2715,10 @@
     </row>
     <row r="4" spans="1:16" ht="51" customHeight="1">
       <c r="A4" s="65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="60"/>
@@ -2725,14 +2737,14 @@
     </row>
     <row r="5" spans="1:16" ht="45" customHeight="1">
       <c r="A5" s="67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="72"/>
       <c r="F5" s="69"/>
@@ -2749,10 +2761,10 @@
     </row>
     <row r="6" spans="1:16" ht="93" customHeight="1">
       <c r="A6" s="75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="76"/>
       <c r="D6" s="80"/>
@@ -2771,14 +2783,14 @@
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A7" s="100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="83"/>
       <c r="D7" s="107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="87"/>
@@ -2795,10 +2807,10 @@
     </row>
     <row r="8" spans="1:16" ht="54.75" customHeight="1">
       <c r="A8" s="90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="91"/>
       <c r="D8" s="95"/>
@@ -2822,8 +2834,8 @@
       <c r="B9" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="91" t="s">
-        <v>26</v>
+      <c r="C9" s="101" t="s">
+        <v>48</v>
       </c>
       <c r="D9" s="92"/>
       <c r="E9" s="92"/>
@@ -2841,14 +2853,14 @@
     </row>
     <row r="10" spans="1:16" ht="33.75" customHeight="1">
       <c r="A10" s="100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="101"/>
       <c r="D10" s="107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="105"/>
       <c r="F10" s="102"/>

--- a/策划文档/版本进度/DEMO版本规划内容.xlsx
+++ b/策划文档/版本进度/DEMO版本规划内容.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="23700" windowHeight="10470"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1076,8 +1076,8 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1230,7 +1230,9 @@
       <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="107" t="s">
+        <v>45</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="15"/>
@@ -1254,7 +1256,9 @@
       <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="107" t="s">
+        <v>45</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>

--- a/策划文档/版本进度/DEMO版本规划内容.xlsx
+++ b/策划文档/版本进度/DEMO版本规划内容.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="23700" windowHeight="10470"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="23700" windowHeight="10470" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="程序" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,10 +127,6 @@
   </si>
   <si>
     <t>在角色和怪物的脚下添加阴影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai状态下技能配置cd的无效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1073,11 +1069,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1103,7 +1099,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
@@ -1129,7 +1125,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1155,7 +1151,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1179,7 +1175,7 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="11"/>
@@ -1205,7 +1201,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -1231,7 +1227,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1257,7 +1253,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1280,7 +1276,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="11"/>
@@ -1328,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="101"/>
       <c r="E10" s="11"/>
@@ -1354,7 +1350,9 @@
       <c r="C11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="107" t="s">
+        <v>44</v>
+      </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -1378,7 +1376,9 @@
       <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="107" t="s">
+        <v>44</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
       <c r="G12" s="8"/>
@@ -1392,16 +1392,16 @@
       <c r="O12" s="11"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:16" ht="82.5" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:16" ht="90.75" customHeight="1">
+      <c r="A13" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="99" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="10"/>
       <c r="G13" s="8"/>
       <c r="H13" s="10"/>
@@ -1414,18 +1414,14 @@
       <c r="O13" s="11"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:16" ht="90.75" customHeight="1">
-      <c r="A14" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="99" t="s">
-        <v>8</v>
-      </c>
+    <row r="14" spans="1:16" ht="88.5" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="8"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -1436,13 +1432,13 @@
       <c r="O14" s="11"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" ht="88.5" customHeight="1">
+    <row r="15" spans="1:16" ht="98.25" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="15"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
@@ -1454,14 +1450,14 @@
       <c r="O15" s="11"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="98.25" customHeight="1">
+    <row r="16" spans="1:16" ht="79.5" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="3"/>
       <c r="C16" s="8"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="15"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -1472,15 +1468,15 @@
       <c r="O16" s="11"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:16" ht="79.5" customHeight="1">
+    <row r="17" spans="1:16" ht="118.5" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="3"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -1490,15 +1486,15 @@
       <c r="O17" s="11"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16" ht="118.5" customHeight="1">
+    <row r="18" spans="1:16" ht="72" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="3"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -1508,13 +1504,13 @@
       <c r="O18" s="11"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="1:16" ht="72" customHeight="1">
+    <row r="19" spans="1:16" ht="80.25" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="3"/>
       <c r="C19" s="8"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="15"/>
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
@@ -1526,7 +1522,7 @@
       <c r="O19" s="11"/>
       <c r="P19" s="12"/>
     </row>
-    <row r="20" spans="1:16" ht="80.25" customHeight="1">
+    <row r="20" spans="1:16" ht="110.25" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="3"/>
       <c r="C20" s="8"/>
@@ -1534,7 +1530,7 @@
       <c r="E20" s="11"/>
       <c r="F20" s="16"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -1544,15 +1540,14 @@
       <c r="O20" s="11"/>
       <c r="P20" s="12"/>
     </row>
-    <row r="21" spans="1:16" ht="110.25" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="14"/>
+    <row r="21" spans="1:16" ht="30.75" customHeight="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -1562,7 +1557,7 @@
       <c r="O21" s="11"/>
       <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="1:16" ht="30.75" customHeight="1">
+    <row r="22" spans="1:16" ht="27" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="16"/>
       <c r="D22" s="11"/>
@@ -1579,7 +1574,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:16" ht="27" customHeight="1">
+    <row r="23" spans="1:16" ht="28.5" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="16"/>
       <c r="D23" s="11"/>
@@ -1596,7 +1591,7 @@
       <c r="O23" s="11"/>
       <c r="P23" s="12"/>
     </row>
-    <row r="24" spans="1:16" ht="28.5" customHeight="1">
+    <row r="24" spans="1:16" ht="33.75" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="16"/>
       <c r="D24" s="11"/>
@@ -1613,7 +1608,7 @@
       <c r="O24" s="11"/>
       <c r="P24" s="12"/>
     </row>
-    <row r="25" spans="1:16" ht="33.75" customHeight="1">
+    <row r="25" spans="1:16" ht="30.75" customHeight="1">
       <c r="A25" s="17"/>
       <c r="B25" s="16"/>
       <c r="D25" s="11"/>
@@ -1630,9 +1625,9 @@
       <c r="O25" s="11"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:16" ht="30.75" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="16"/>
+    <row r="26" spans="1:16" ht="30" customHeight="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -1664,9 +1659,9 @@
       <c r="O27" s="11"/>
       <c r="P27" s="12"/>
     </row>
-    <row r="28" spans="1:16" ht="30" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
+    <row r="28" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A28" s="17"/>
+      <c r="B28" s="16"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -1681,7 +1676,7 @@
       <c r="O28" s="11"/>
       <c r="P28" s="12"/>
     </row>
-    <row r="29" spans="1:16" ht="25.5" customHeight="1">
+    <row r="29" spans="1:16" ht="27" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="16"/>
       <c r="D29" s="11"/>
@@ -1698,9 +1693,9 @@
       <c r="O29" s="11"/>
       <c r="P29" s="12"/>
     </row>
-    <row r="30" spans="1:16" ht="27" customHeight="1">
+    <row r="30" spans="1:16" ht="26.25" customHeight="1">
       <c r="A30" s="17"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -1715,8 +1710,8 @@
       <c r="O30" s="11"/>
       <c r="P30" s="12"/>
     </row>
-    <row r="31" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A31" s="17"/>
+    <row r="31" spans="1:16">
+      <c r="A31" s="19"/>
       <c r="B31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -1834,40 +1829,23 @@
       <c r="O37" s="11"/>
       <c r="P37" s="12"/>
     </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="19"/>
-      <c r="B38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="12"/>
-    </row>
-    <row r="39" spans="1:16" ht="18.75" thickBot="1">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="23"/>
+    <row r="38" spans="1:16" ht="18.75" thickBot="1">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1880,7 +1858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1907,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
@@ -1924,14 +1902,14 @@
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="108" customHeight="1">
       <c r="A2" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="99" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="99" t="s">
-        <v>31</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1948,14 +1926,14 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A3" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="33"/>
@@ -1972,14 +1950,14 @@
     </row>
     <row r="4" spans="1:16" ht="51" customHeight="1">
       <c r="A4" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="43"/>
@@ -1996,10 +1974,10 @@
     </row>
     <row r="5" spans="1:16" ht="45" customHeight="1">
       <c r="A5" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="11"/>
@@ -2018,14 +1996,14 @@
     </row>
     <row r="6" spans="1:16" ht="93" customHeight="1">
       <c r="A6" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -2042,10 +2020,10 @@
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -2631,8 +2609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2658,7 +2636,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
@@ -2675,10 +2653,10 @@
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="108" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="49"/>
@@ -2697,13 +2675,15 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A3" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
+      <c r="D3" s="107" t="s">
+        <v>44</v>
+      </c>
       <c r="E3" s="55"/>
       <c r="F3" s="56"/>
       <c r="G3" s="53"/>
@@ -2719,13 +2699,15 @@
     </row>
     <row r="4" spans="1:16" ht="51" customHeight="1">
       <c r="A4" s="65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
+      <c r="D4" s="107" t="s">
+        <v>44</v>
+      </c>
       <c r="E4" s="60"/>
       <c r="F4" s="60"/>
       <c r="G4" s="64"/>
@@ -2741,14 +2723,14 @@
     </row>
     <row r="5" spans="1:16" ht="45" customHeight="1">
       <c r="A5" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="72"/>
       <c r="F5" s="69"/>
@@ -2765,10 +2747,10 @@
     </row>
     <row r="6" spans="1:16" ht="93" customHeight="1">
       <c r="A6" s="75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="76"/>
       <c r="D6" s="80"/>
@@ -2787,14 +2769,14 @@
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A7" s="100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="83"/>
       <c r="D7" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="87"/>
@@ -2811,10 +2793,10 @@
     </row>
     <row r="8" spans="1:16" ht="54.75" customHeight="1">
       <c r="A8" s="90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="91"/>
       <c r="D8" s="95"/>
@@ -2839,7 +2821,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="92"/>
       <c r="E9" s="92"/>
@@ -2857,14 +2839,14 @@
     </row>
     <row r="10" spans="1:16" ht="33.75" customHeight="1">
       <c r="A10" s="100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="101"/>
       <c r="D10" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="105"/>
       <c r="F10" s="102"/>

--- a/策划文档/版本进度/DEMO版本规划内容.xlsx
+++ b/策划文档/版本进度/DEMO版本规划内容.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="23700" windowHeight="10470" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="23700" windowHeight="10470"/>
   </bookViews>
   <sheets>
     <sheet name="程序" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,10 @@
   </si>
   <si>
     <t>副本战斗结算界面UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡机制实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,9 +690,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1071,9 +1072,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1098,7 +1099,7 @@
       <c r="C1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="105" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="26"/>
@@ -1124,7 +1125,7 @@
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="4"/>
@@ -1150,7 +1151,7 @@
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="4"/>
@@ -1174,7 +1175,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="16"/>
@@ -1200,7 +1201,7 @@
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="11"/>
@@ -1226,7 +1227,7 @@
       <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="10"/>
@@ -1252,7 +1253,7 @@
       <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="4"/>
@@ -1275,10 +1276,12 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="106" t="s">
+        <v>44</v>
+      </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="15"/>
@@ -1323,10 +1326,10 @@
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="101"/>
+      <c r="D10" s="100"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -1350,7 +1353,7 @@
       <c r="C11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="11"/>
@@ -1376,7 +1379,7 @@
       <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="9"/>
@@ -1393,14 +1396,16 @@
       <c r="P12" s="12"/>
     </row>
     <row r="13" spans="1:16" ht="90.75" customHeight="1">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="98" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="106" t="s">
+        <v>44</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="10"/>
       <c r="G13" s="8"/>
@@ -1415,8 +1420,12 @@
       <c r="P13" s="12"/>
     </row>
     <row r="14" spans="1:16" ht="88.5" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -1859,7 +1868,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1884,7 +1893,7 @@
       <c r="C1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="105" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="26"/>
@@ -1901,14 +1910,14 @@
       <c r="P1" s="28"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="108" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="98" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="4"/>
@@ -1932,7 +1941,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="36"/>
@@ -1956,7 +1965,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="39"/>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="40"/>
@@ -1998,11 +2007,11 @@
       <c r="A6" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="98" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="10"/>
@@ -2022,7 +2031,7 @@
       <c r="A7" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="98" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="3"/>
@@ -2609,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2635,7 +2644,7 @@
       <c r="C1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="105" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="26"/>
@@ -2681,7 +2690,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="54"/>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="55"/>
@@ -2705,7 +2714,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="59"/>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="60"/>
@@ -2729,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="68"/>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="106" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="72"/>
@@ -2753,10 +2762,12 @@
         <v>30</v>
       </c>
       <c r="C6" s="76"/>
-      <c r="D6" s="80"/>
+      <c r="D6" s="106" t="s">
+        <v>44</v>
+      </c>
       <c r="E6" s="78"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="77"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78"/>
@@ -2768,98 +2779,98 @@
       <c r="P6" s="79"/>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="107" t="s">
+      <c r="C7" s="82"/>
+      <c r="D7" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="85"/>
     </row>
     <row r="8" spans="1:16" ht="54.75" customHeight="1">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="93"/>
-    </row>
-    <row r="9" spans="1:16" s="94" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A9" s="98" t="s">
+      <c r="C8" s="90"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="92"/>
+    </row>
+    <row r="9" spans="1:16" s="93" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A9" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="93"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="92"/>
     </row>
     <row r="10" spans="1:16" ht="33.75" customHeight="1">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="107" t="s">
+      <c r="C10" s="100"/>
+      <c r="D10" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="105"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="103"/>
     </row>
     <row r="11" spans="1:16" ht="43.5" customHeight="1">
       <c r="A11" s="17"/>

--- a/策划文档/版本进度/DEMO版本规划内容.xlsx
+++ b/策划文档/版本进度/DEMO版本规划内容.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1073,8 +1073,8 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1868,7 +1868,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2035,7 +2035,9 @@
         <v>48</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="106" t="s">
+        <v>44</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
@@ -2618,8 +2620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/策划文档/版本进度/DEMO版本规划内容.xlsx
+++ b/策划文档/版本进度/DEMO版本规划内容.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,10 @@
   </si>
   <si>
     <t>格挡机制实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加连击数显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1073,8 +1077,8 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1442,8 +1446,12 @@
       <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16" ht="98.25" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>8</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>

--- a/策划文档/版本进度/DEMO版本规划内容.xlsx
+++ b/策划文档/版本进度/DEMO版本规划内容.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,10 @@
   </si>
   <si>
     <t>增加连击数显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动编中断切换功能实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,6 +791,105 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>48846</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1111250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>153621</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1726955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8499231" y="12443558"/>
+          <a:ext cx="3072178" cy="1861282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4029808</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1697403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>80352</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>789110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8425962" y="14275288"/>
+          <a:ext cx="3072178" cy="1778245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1077,8 +1180,8 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1467,8 +1570,10 @@
       <c r="O15" s="11"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="79.5" customHeight="1">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:16" ht="211.5" customHeight="1">
+      <c r="A16" s="99" t="s">
+        <v>52</v>
+      </c>
       <c r="B16" s="3"/>
       <c r="C16" s="8"/>
       <c r="D16" s="14"/>
@@ -1868,6 +1973,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1876,7 +1982,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2628,8 +2734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/策划文档/版本进度/DEMO版本规划内容.xlsx
+++ b/策划文档/版本进度/DEMO版本规划内容.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="23700" windowHeight="10470"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="23700" windowHeight="10470" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="程序" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,22 @@
   </si>
   <si>
     <t>动编中断切换功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计新角色霸刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录制游戏宣传视频素材和剪辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓洋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1179,9 +1195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1436,7 +1452,9 @@
       <c r="C10" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="100"/>
+      <c r="D10" s="106" t="s">
+        <v>44</v>
+      </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -1461,7 +1479,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="106" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1981,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2166,8 +2184,12 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="1:16" ht="54.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="98" t="s">
+        <v>48</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="D8" s="14"/>
       <c r="E8" s="11"/>
@@ -2184,8 +2206,12 @@
       <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>56</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2734,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2784,7 +2810,9 @@
         <v>30</v>
       </c>
       <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="D2" s="106" t="s">
+        <v>44</v>
+      </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
       <c r="G2" s="48"/>
@@ -2926,7 +2954,9 @@
         <v>30</v>
       </c>
       <c r="C8" s="90"/>
-      <c r="D8" s="94"/>
+      <c r="D8" s="106" t="s">
+        <v>44</v>
+      </c>
       <c r="E8" s="91"/>
       <c r="F8" s="96"/>
       <c r="G8" s="95"/>
@@ -2950,7 +2980,9 @@
       <c r="C9" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="91"/>
+      <c r="D9" s="106" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="91"/>
       <c r="F9" s="91"/>
       <c r="G9" s="91"/>

--- a/策划文档/版本进度/DEMO版本规划内容.xlsx
+++ b/策划文档/版本进度/DEMO版本规划内容.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="23700" windowHeight="10470" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="23700" windowHeight="10470"/>
   </bookViews>
   <sheets>
     <sheet name="程序" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,10 @@
   </si>
   <si>
     <t>王晓洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡判定文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1195,9 +1199,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1551,7 +1555,9 @@
       <c r="B14" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="100" t="s">
+        <v>57</v>
+      </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1999,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
